--- a/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Hydraulic_Calcualtion_Bainbasat_input.xlsx
+++ b/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Hydraulic_Calcualtion_Bainbasat_input.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="148">
   <si>
     <t>parameters</t>
   </si>
@@ -32,15 +32,6 @@
     <t>values</t>
   </si>
   <si>
-    <t>Unnamed: 3</t>
-  </si>
-  <si>
-    <t>Unnamed: 4</t>
-  </si>
-  <si>
-    <t>Unnamed: 5</t>
-  </si>
-  <si>
     <t>Basin Area</t>
   </si>
   <si>
@@ -134,6 +125,9 @@
     <t>surcharge height</t>
   </si>
   <si>
+    <t>return wall level</t>
+  </si>
+  <si>
     <t>sq mile</t>
   </si>
   <si>
@@ -159,6 +153,9 @@
   </si>
   <si>
     <t>pcf</t>
+  </si>
+  <si>
+    <t>fee-pwd</t>
   </si>
   <si>
     <t>Q</t>
@@ -825,13 +822,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,442 +838,438 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>4.92</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>11.48</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>-4.92</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>-5.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>16.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>19.68</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>-3.28</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23">
         <v>9.84</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24">
         <v>21.32</v>
       </c>
-      <c r="G24">
-        <v>4.592</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D25">
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26">
         <v>19.68</v>
       </c>
-      <c r="G26">
-        <v>0.2333333333333333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27">
         <v>0.143</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28">
         <v>3.28</v>
       </c>
-      <c r="G28">
-        <v>0.146027397260274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D30">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D32">
         <v>12.68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33">
+        <v>11.35</v>
       </c>
     </row>
   </sheetData>
@@ -1294,64 +1287,64 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -2149,64 +2142,64 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -3004,13 +2997,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3018,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2">
         <v>61.069</v>
@@ -3032,10 +3025,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -3046,10 +3039,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -3060,10 +3053,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <v>3.18</v>
@@ -3074,7 +3067,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>3.26</v>
@@ -3085,10 +3078,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <v>38.79</v>
@@ -3099,10 +3092,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8">
         <v>29.5</v>
@@ -3113,10 +3106,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9">
         <v>146</v>
@@ -3127,10 +3120,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3141,10 +3134,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>57</v>
@@ -3155,10 +3148,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12">
         <v>89</v>
@@ -3169,10 +3162,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13">
         <v>146</v>
@@ -3193,19 +3186,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3213,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>36.97</v>
@@ -3233,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3">
         <v>63.03</v>
@@ -3263,16 +3256,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3358,16 +3351,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3375,16 +3368,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3392,16 +3385,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3409,16 +3402,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3426,16 +3419,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3443,16 +3436,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3460,16 +3453,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3477,16 +3470,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3494,16 +3487,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3511,16 +3504,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3528,16 +3521,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>12.68</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3545,16 +3538,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12">
         <v>1.2</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3562,16 +3555,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13">
         <v>1.3</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3579,16 +3572,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14">
         <v>-3.28</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3596,16 +3589,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15">
         <v>16.4</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3613,16 +3606,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3640,22 +3633,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3663,16 +3656,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" t="s">
         <v>146</v>
-      </c>
-      <c r="E2" t="s">
-        <v>147</v>
       </c>
       <c r="F2">
         <v>-1.723</v>
@@ -3686,16 +3679,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" t="s">
         <v>146</v>
-      </c>
-      <c r="E3" t="s">
-        <v>147</v>
       </c>
       <c r="F3">
         <v>1.992</v>
@@ -3709,16 +3702,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4">
         <v>1.0008</v>
@@ -3732,16 +3725,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" t="s">
         <v>145</v>
       </c>
-      <c r="D5" t="s">
-        <v>146</v>
-      </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5">
         <v>-1.0008</v>

--- a/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Hydraulic_Calcualtion_Bainbasat_input.xlsx
+++ b/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Hydraulic_Calcualtion_Bainbasat_input.xlsx
@@ -13,15 +13,16 @@
     <sheet name="Selected Basin" sheetId="4" r:id="rId4"/>
     <sheet name="Seepage_calc" sheetId="5" r:id="rId5"/>
     <sheet name="thickness_calc" sheetId="6" r:id="rId6"/>
-    <sheet name="Load Calcualtion Input" sheetId="7" r:id="rId7"/>
-    <sheet name="Barrel Load" sheetId="8" r:id="rId8"/>
+    <sheet name="Deailed_thickness" sheetId="7" r:id="rId7"/>
+    <sheet name="Load Calcualtion Input" sheetId="8" r:id="rId8"/>
+    <sheet name="Barrel Load" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="156">
   <si>
     <t>parameters</t>
   </si>
@@ -32,6 +33,9 @@
     <t>values</t>
   </si>
   <si>
+    <t>Unnamed: 3</t>
+  </si>
+  <si>
     <t>Basin Area</t>
   </si>
   <si>
@@ -306,6 +310,27 @@
   </si>
   <si>
     <t>th_min(feet)</t>
+  </si>
+  <si>
+    <t>dist</t>
+  </si>
+  <si>
+    <t>P%</t>
+  </si>
+  <si>
+    <t>Hw</t>
+  </si>
+  <si>
+    <t>Bi</t>
+  </si>
+  <si>
+    <t>-WwL</t>
+  </si>
+  <si>
+    <t>Net(Hw)</t>
+  </si>
+  <si>
+    <t>t_req</t>
   </si>
   <si>
     <t>Parameter Name</t>
@@ -822,13 +847,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,203 +863,209 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>4.92</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>11.48</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>-4.92</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>14.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>-5.4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>16.4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>19.68</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>-3.28</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1045,10 +1076,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17">
         <v>18</v>
@@ -1059,10 +1090,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -1073,10 +1104,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -1087,10 +1118,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1101,10 +1132,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -1115,10 +1146,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22">
         <v>32</v>
@@ -1129,10 +1160,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D23">
         <v>9.84</v>
@@ -1143,10 +1174,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24">
         <v>21.32</v>
@@ -1157,7 +1188,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25">
         <v>0.4</v>
@@ -1168,13 +1199,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26">
-        <v>19.68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1182,7 +1213,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27">
         <v>0.143</v>
@@ -1193,10 +1224,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>3.28</v>
@@ -1207,10 +1238,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D29">
         <v>12</v>
@@ -1221,10 +1252,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30">
         <v>120</v>
@@ -1235,10 +1266,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1249,10 +1280,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32">
         <v>12.68</v>
@@ -1263,10 +1294,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D33">
         <v>11.35</v>
@@ -1287,64 +1318,64 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -2142,64 +2173,64 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -2997,13 +3028,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3011,10 +3042,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2">
         <v>61.069</v>
@@ -3025,10 +3056,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -3039,10 +3070,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -3053,10 +3084,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5">
         <v>3.18</v>
@@ -3067,7 +3098,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>3.26</v>
@@ -3078,10 +3109,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7">
         <v>38.79</v>
@@ -3092,10 +3123,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8">
         <v>29.5</v>
@@ -3106,10 +3137,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9">
         <v>146</v>
@@ -3120,10 +3151,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3134,10 +3165,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11">
         <v>57</v>
@@ -3148,10 +3179,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <v>89</v>
@@ -3162,10 +3193,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13">
         <v>146</v>
@@ -3186,19 +3217,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3206,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2">
-        <v>36.97</v>
+        <v>33.52</v>
       </c>
       <c r="D2">
-        <v>-2.377218616267632</v>
+        <v>-1.650475617020913</v>
       </c>
       <c r="E2">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="F2">
-        <v>37.9</v>
+        <v>33.57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3226,19 +3257,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3">
-        <v>63.03</v>
+        <v>66.48</v>
       </c>
       <c r="D3">
-        <v>2.377218616267632</v>
+        <v>1.650475617020913</v>
       </c>
       <c r="E3">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="F3">
-        <v>66.84999999999999</v>
+        <v>69.73</v>
       </c>
     </row>
   </sheetData>
@@ -3256,16 +3287,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3276,10 +3307,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>66.84999999999999</v>
+        <v>69.73</v>
       </c>
       <c r="D2">
-        <v>13.16</v>
+        <v>10.46</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3293,10 +3324,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>55.55</v>
+        <v>55.61</v>
       </c>
       <c r="D3">
-        <v>10.93</v>
+        <v>8.34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3310,13 +3341,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>49.2</v>
+        <v>47.69</v>
       </c>
       <c r="D4">
-        <v>9.68</v>
+        <v>7.15</v>
       </c>
       <c r="E4">
-        <v>6.91</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3327,13 +3358,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>37.9</v>
+        <v>33.57</v>
       </c>
       <c r="D5">
-        <v>7.46</v>
+        <v>5.04</v>
       </c>
       <c r="E5">
-        <v>5.33</v>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
@@ -3342,6 +3373,562 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>33.57</v>
+      </c>
+      <c r="D2">
+        <v>5.04</v>
+      </c>
+      <c r="E2">
+        <v>48</v>
+      </c>
+      <c r="F2">
+        <v>1.13</v>
+      </c>
+      <c r="G2">
+        <v>3.91</v>
+      </c>
+      <c r="H2">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>34.31301369863014</v>
+      </c>
+      <c r="D3">
+        <v>5.15</v>
+      </c>
+      <c r="E3">
+        <v>46.07</v>
+      </c>
+      <c r="F3">
+        <v>1.18</v>
+      </c>
+      <c r="G3">
+        <v>3.97</v>
+      </c>
+      <c r="H3">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>35.05602739726027</v>
+      </c>
+      <c r="D4">
+        <v>5.26</v>
+      </c>
+      <c r="E4">
+        <v>44.13</v>
+      </c>
+      <c r="F4">
+        <v>1.23</v>
+      </c>
+      <c r="G4">
+        <v>4.03</v>
+      </c>
+      <c r="H4">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>35.79904109589041</v>
+      </c>
+      <c r="D5">
+        <v>5.37</v>
+      </c>
+      <c r="E5">
+        <v>42.2</v>
+      </c>
+      <c r="F5">
+        <v>1.29</v>
+      </c>
+      <c r="G5">
+        <v>4.08</v>
+      </c>
+      <c r="H5">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>36.54205479452055</v>
+      </c>
+      <c r="D6">
+        <v>5.48</v>
+      </c>
+      <c r="E6">
+        <v>40.26</v>
+      </c>
+      <c r="F6">
+        <v>1.35</v>
+      </c>
+      <c r="G6">
+        <v>4.13</v>
+      </c>
+      <c r="H6">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>37.28506849315069</v>
+      </c>
+      <c r="D7">
+        <v>5.59</v>
+      </c>
+      <c r="E7">
+        <v>38.33</v>
+      </c>
+      <c r="F7">
+        <v>1.42</v>
+      </c>
+      <c r="G7">
+        <v>4.17</v>
+      </c>
+      <c r="H7">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>38.02808219178083</v>
+      </c>
+      <c r="D8">
+        <v>5.7</v>
+      </c>
+      <c r="E8">
+        <v>36.39</v>
+      </c>
+      <c r="F8">
+        <v>1.49</v>
+      </c>
+      <c r="G8">
+        <v>4.21</v>
+      </c>
+      <c r="H8">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>38.77109589041096</v>
+      </c>
+      <c r="D9">
+        <v>5.82</v>
+      </c>
+      <c r="E9">
+        <v>34.46</v>
+      </c>
+      <c r="F9">
+        <v>1.58</v>
+      </c>
+      <c r="G9">
+        <v>4.24</v>
+      </c>
+      <c r="H9">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>39.5141095890411</v>
+      </c>
+      <c r="D10">
+        <v>5.93</v>
+      </c>
+      <c r="E10">
+        <v>32.53</v>
+      </c>
+      <c r="F10">
+        <v>1.67</v>
+      </c>
+      <c r="G10">
+        <v>4.26</v>
+      </c>
+      <c r="H10">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>40.25712328767123</v>
+      </c>
+      <c r="D11">
+        <v>6.04</v>
+      </c>
+      <c r="E11">
+        <v>30.59</v>
+      </c>
+      <c r="F11">
+        <v>1.78</v>
+      </c>
+      <c r="G11">
+        <v>4.26</v>
+      </c>
+      <c r="H11">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>41.00013698630137</v>
+      </c>
+      <c r="D12">
+        <v>6.15</v>
+      </c>
+      <c r="E12">
+        <v>28.66</v>
+      </c>
+      <c r="F12">
+        <v>1.9</v>
+      </c>
+      <c r="G12">
+        <v>4.25</v>
+      </c>
+      <c r="H12">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>41.74315068493151</v>
+      </c>
+      <c r="D13">
+        <v>6.26</v>
+      </c>
+      <c r="E13">
+        <v>26.72</v>
+      </c>
+      <c r="F13">
+        <v>2.04</v>
+      </c>
+      <c r="G13">
+        <v>4.22</v>
+      </c>
+      <c r="H13">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>42.48616438356164</v>
+      </c>
+      <c r="D14">
+        <v>6.37</v>
+      </c>
+      <c r="E14">
+        <v>24.79</v>
+      </c>
+      <c r="F14">
+        <v>2.19</v>
+      </c>
+      <c r="G14">
+        <v>4.18</v>
+      </c>
+      <c r="H14">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>43.22917808219178</v>
+      </c>
+      <c r="D15">
+        <v>6.48</v>
+      </c>
+      <c r="E15">
+        <v>22.86</v>
+      </c>
+      <c r="F15">
+        <v>2.38</v>
+      </c>
+      <c r="G15">
+        <v>4.1</v>
+      </c>
+      <c r="H15">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>43.97219178082192</v>
+      </c>
+      <c r="D16">
+        <v>6.6</v>
+      </c>
+      <c r="E16">
+        <v>20.92</v>
+      </c>
+      <c r="F16">
+        <v>2.6</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>44.71520547945205</v>
+      </c>
+      <c r="D17">
+        <v>6.71</v>
+      </c>
+      <c r="E17">
+        <v>18.99</v>
+      </c>
+      <c r="F17">
+        <v>2.87</v>
+      </c>
+      <c r="G17">
+        <v>3.84</v>
+      </c>
+      <c r="H17">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>45.4582191780822</v>
+      </c>
+      <c r="D18">
+        <v>6.82</v>
+      </c>
+      <c r="E18">
+        <v>17.05</v>
+      </c>
+      <c r="F18">
+        <v>3.19</v>
+      </c>
+      <c r="G18">
+        <v>3.63</v>
+      </c>
+      <c r="H18">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>46.20123287671233</v>
+      </c>
+      <c r="D19">
+        <v>6.93</v>
+      </c>
+      <c r="E19">
+        <v>15.12</v>
+      </c>
+      <c r="F19">
+        <v>3.6</v>
+      </c>
+      <c r="G19">
+        <v>3.33</v>
+      </c>
+      <c r="H19">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>54</v>
+      </c>
+      <c r="C20">
+        <v>46.94424657534247</v>
+      </c>
+      <c r="D20">
+        <v>7.04</v>
+      </c>
+      <c r="E20">
+        <v>13.18</v>
+      </c>
+      <c r="F20">
+        <v>4.13</v>
+      </c>
+      <c r="G20">
+        <v>2.91</v>
+      </c>
+      <c r="H20">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>57</v>
+      </c>
+      <c r="C21">
+        <v>47.6872602739726</v>
+      </c>
+      <c r="D21">
+        <v>7.15</v>
+      </c>
+      <c r="E21">
+        <v>11.25</v>
+      </c>
+      <c r="F21">
+        <v>4.84</v>
+      </c>
+      <c r="G21">
+        <v>2.31</v>
+      </c>
+      <c r="H21">
+        <v>1.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -3351,16 +3938,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3368,16 +3955,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3385,16 +3972,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3402,16 +3989,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3419,16 +4006,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3436,16 +4023,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3453,16 +4040,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>83</v>
+        <v>36.48</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3470,16 +4057,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3487,16 +4074,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3504,16 +4091,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3521,16 +4108,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>12.68</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3538,16 +4125,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D12">
         <v>1.2</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3555,16 +4142,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D13">
         <v>1.3</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3572,16 +4159,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D14">
         <v>-3.28</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3589,16 +4176,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D15">
         <v>16.4</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3606,16 +4193,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3623,7 +4210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3633,22 +4220,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3656,16 +4243,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F2">
         <v>-1.723</v>
@@ -3679,16 +4266,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F3">
         <v>1.992</v>
@@ -3702,22 +4289,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F4">
         <v>1.0008</v>
       </c>
       <c r="G4">
-        <v>1.5983</v>
+        <v>1.482</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3725,22 +4312,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F5">
         <v>-1.0008</v>
       </c>
       <c r="G5">
-        <v>-1.5983</v>
+        <v>-1.482</v>
       </c>
     </row>
   </sheetData>
